--- a/biology/Botanique/Dendrophthoe_glabrescens/Dendrophthoe_glabrescens.xlsx
+++ b/biology/Botanique/Dendrophthoe_glabrescens/Dendrophthoe_glabrescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrophthoe glabrescens est une espèce de plantes à fleurs du genre Dendrophthoe, de la famille des Loranthaceae. Cette espèce, communément appelée « gui orange », est une plante hémiparasite de la famille du gui, trouvée dans l'est de [3] et le nord de l'Australie[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrophthoe glabrescens est une espèce de plantes à fleurs du genre Dendrophthoe, de la famille des Loranthaceae. Cette espèce, communément appelée « gui orange », est une plante hémiparasite de la famille du gui, trouvée dans l'est de  et le nord de l'Australie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été décrit pour la première fois en 1925 sous le nom de Loranthus vitellinus var. glabrescens par William Blakely[1],[5], et en 1962 a été transféré au genre, Dendrophthoe, et élevé au statut d'espèce par Bryan Barlow[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été décrit pour la première fois en 1925 sous le nom de Loranthus vitellinus var. glabrescens par William Blakely et en 1962 a été transféré au genre, Dendrophthoe, et élevé au statut d'espèce par Bryan Barlow,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrophthoe glabrescens fleurit d'octobre à janvier[3]. Les fleurs sont tubulaires, avec une base verte, mais là où le tube s'ouvre, il apparait orange puis rouge vif[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrophthoe glabrescens fleurit d'octobre à janvier. Les fleurs sont tubulaires, avec une base verte, mais là où le tube s'ouvre, il apparait orange puis rouge vif.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition naturelle de cette espèce sont les Petites îles de la Sonde, Papouasie-Nouvelle-Guinée, N. &amp; E. Australie. C'est un épiphyte hémiparasite qui pousse principalement dans le biome tropical saisonnier sec[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition naturelle de cette espèce sont les Petites îles de la Sonde, Papouasie-Nouvelle-Guinée, N. &amp; E. Australie. C'est un épiphyte hémiparasite qui pousse principalement dans le biome tropical saisonnier sec.
 </t>
         </is>
       </c>
